--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Practice\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43527BA4-98D6-4CD4-82EB-3A29EFFF0D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E45C84-56F0-4B9F-8403-026B664CBEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72F915DB-2A2D-49C9-B9A5-0F9AD04BDA00}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Sr No</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>wdd</t>
+  </si>
+  <si>
+    <t>fggk</t>
   </si>
 </sst>
 </file>
@@ -400,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A4425D-CED7-4E4F-B730-3CC6C1C826D4}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,6 +443,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Practice\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E45C84-56F0-4B9F-8403-026B664CBEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A12B35-D280-4EA0-A775-64ADEE0A4F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72F915DB-2A2D-49C9-B9A5-0F9AD04BDA00}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Sr No</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>fggk</t>
+  </si>
+  <si>
+    <t>fgfokdd</t>
   </si>
 </sst>
 </file>
@@ -403,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A4425D-CED7-4E4F-B730-3CC6C1C826D4}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -451,6 +454,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Practice\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A12B35-D280-4EA0-A775-64ADEE0A4F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D551E171-AFE0-4128-9706-37E5E13322D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72F915DB-2A2D-49C9-B9A5-0F9AD04BDA00}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Sr No</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>fgfokdd</t>
+  </si>
+  <si>
+    <t>7juj</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A4425D-CED7-4E4F-B730-3CC6C1C826D4}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -462,6 +465,14 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git Practice\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D551E171-AFE0-4128-9706-37E5E13322D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015F12E8-A33A-4A74-86EF-DAE3DC67F7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72F915DB-2A2D-49C9-B9A5-0F9AD04BDA00}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Sr No</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>7juj</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A4425D-CED7-4E4F-B730-3CC6C1C826D4}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,6 +476,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
